--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ifrs9FacData.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ifrs9FacData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D758A5-71F9-400F-84AB-7D8B2F16951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F561A6-1994-4B19-ABDE-57440F397C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="341">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1421,6 +1421,9 @@
   <si>
     <t>000:全公司      (舊：null 一般)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1721,11 +1724,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1734,9 +1737,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,10 +1746,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1770,7 +1770,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1785,10 +1785,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1797,27 +1797,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1837,9 +1819,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1927,9 +1906,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1967,9 +1946,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2002,26 +1981,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2054,26 +2016,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2250,7 +2195,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2258,1164 +2203,1160 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="5" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42" style="41" customWidth="1"/>
-    <col min="8" max="8" width="78.33203125" style="42" customWidth="1"/>
-    <col min="9" max="16384" width="72.88671875" style="4"/>
+    <col min="7" max="7" width="42" style="33" customWidth="1"/>
+    <col min="8" max="8" width="78.33203125" style="34" customWidth="1"/>
+    <col min="9" max="16384" width="72.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>6</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="43" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="35" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>7</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="43" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="35" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>3</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="43" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="35" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>7</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="43" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>10</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="43" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="35" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>1</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="38" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="35" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>8</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="38" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>8</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="43" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="35" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>8</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="38" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="18">
         <v>8</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="43" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="35" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>16</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>2</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="34" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>16</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>2</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="43" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="35" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
         <v>13</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>16</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>2</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>16</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>2</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="35" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>3</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="38" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="35" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>1</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="38" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="35" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
         <v>17</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>1</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="38" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="35" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A26" s="19">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>18</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>2</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="38" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
         <v>19</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>2</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="38" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="35" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>1</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="38" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="35" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>21</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>6</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="44" t="s">
+      <c r="F29" s="18"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="36" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
+    <row r="30" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
         <v>22</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>2</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="38" t="s">
+      <c r="F30" s="18"/>
+      <c r="G30" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="35" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
         <v>23</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>2</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="43" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="35" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19">
+    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
         <v>24</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>3</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="43" t="s">
+      <c r="F32" s="18"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="35" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
         <v>25</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>3</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="43" t="s">
+      <c r="F33" s="18"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
+    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
         <v>26</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>5</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="43" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="35" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
         <v>27</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>1</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="38" t="s">
+      <c r="F35" s="18"/>
+      <c r="G35" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="35" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
         <v>28</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>1</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="35" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" ht="162" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="162" x14ac:dyDescent="0.3">
+      <c r="A37" s="18">
         <v>29</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>1</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="44" t="s">
+      <c r="F37" s="18"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="36" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="19">
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
         <v>30</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="18">
         <v>2</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="38" t="s">
+      <c r="F38" s="18"/>
+      <c r="G38" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="35" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
         <v>31</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="18">
         <v>16</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="18">
         <v>2</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="44" t="s">
+      <c r="G39" s="31"/>
+      <c r="H39" s="36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19">
+    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
         <v>32</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="18">
         <v>16</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="18">
         <v>2</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="43" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
         <v>33</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="18">
         <v>16</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="18">
         <v>2</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="35" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
+    <row r="42" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
         <v>34</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="27">
         <v>16</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="27">
         <v>2</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="37" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
         <v>35</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="18">
         <v>1</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="38" t="s">
+      <c r="F43" s="18"/>
+      <c r="G43" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="H43" s="44" t="s">
+      <c r="H43" s="36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
+    <row r="44" spans="1:8" s="6" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
         <v>36</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="18">
         <v>1</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="38" t="s">
+      <c r="F44" s="18"/>
+      <c r="G44" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="36" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
         <v>37</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="18">
         <v>16</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="18">
         <v>2</v>
       </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="43" t="s">
+      <c r="G45" s="31"/>
+      <c r="H45" s="35" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19">
+    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
         <v>38</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="40">
         <v>3</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="55" t="s">
+      <c r="F46" s="41"/>
+      <c r="G46" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="H46" s="54" t="s">
+      <c r="H46" s="46" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
         <v>39</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="43">
         <v>3</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53" t="s">
+      <c r="F47" s="44"/>
+      <c r="G47" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="H47" s="54" t="s">
+      <c r="H47" s="46" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
         <v>40</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+      <c r="D48" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="31"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
         <v>41</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="16">
         <v>6</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="42"/>
-    </row>
-    <row r="50" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19">
+      <c r="F49" s="18"/>
+      <c r="G49" s="31"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
         <v>42</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="42"/>
-    </row>
-    <row r="51" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19">
+      <c r="D50" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="31"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="18">
         <v>43</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="16">
         <v>6</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="42"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="38"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="38"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="38"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="38"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="31"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="31"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="31"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="31"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3451,13 +3392,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3483,14 +3424,14 @@
     <col min="3" max="3" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="24" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3521,126 +3462,126 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="152.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="152.6640625" style="57"/>
+    <col min="1" max="16384" width="152.6640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="48" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="49" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="49" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="49" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="49" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="49" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="49" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="49" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="49" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="49" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="49" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="49" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="49" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="49" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="49" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="49" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="49" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="49" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="49" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="49" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="49" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="49" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="49" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3660,513 +3601,513 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="129.5546875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" style="57" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="129.5546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" style="49" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="49" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="48" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="48" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="48" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="48" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="49" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="48" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="48" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="48" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="48" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="48" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="48" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="48" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="48" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="48" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="48" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="49" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="49" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="49" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="49" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="49" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="49" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="49" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="49" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="49" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="49" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="49" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="49" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="49" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="49" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="49" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="49" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="49" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="49" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="49" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="49" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="49" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="49" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="49" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="49" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="49" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="49" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="49" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="49" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="49" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="49" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="49" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="49" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="49" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="49" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="49" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="49" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="49" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="49" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="49" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="49" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="49" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="49" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="49" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="57" t="s">
+      <c r="A63" s="49" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="49" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="57" t="s">
+      <c r="A65" s="49" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="49" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="57" t="s">
+      <c r="A67" s="49" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="49" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="49" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="57" t="s">
+      <c r="A70" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="49" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="49" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="49" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="57" t="s">
+      <c r="A74" s="49" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="49" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="57" t="s">
+      <c r="A76" s="49" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="49" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="57" t="s">
+      <c r="A78" s="49" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="49" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="49" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="49" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="57" t="s">
+      <c r="A82" s="49" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="57" t="s">
+      <c r="A83" s="49" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="57" t="s">
+      <c r="A84" s="49" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="49" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="49" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="57" t="s">
+      <c r="A87" s="49" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="49" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="49" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="57" t="s">
+      <c r="A90" s="49" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="57" t="s">
+      <c r="A91" s="49" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="49" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="57" t="s">
+      <c r="A93" s="49" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="57" t="s">
+      <c r="A94" s="49" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="57" t="s">
+      <c r="A95" s="49" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="57" t="s">
+      <c r="A96" s="49" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="57" t="s">
+      <c r="A97" s="49" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="57" t="s">
+      <c r="A98" s="49" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="49" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="57" t="s">
+      <c r="A100" s="49" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="57" t="s">
+      <c r="A101" s="49" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4189,1327 +4130,1327 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="72.88671875" style="26"/>
+    <col min="7" max="7" width="42" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="72.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="22"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="22"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="26" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>6</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>7</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>3</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>7</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>10</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>1</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="27" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>8</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="27" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="18">
         <v>8</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>16</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>2</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>13</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>2</v>
       </c>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>13</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>2</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>13</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>2</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>3</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="27" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>1</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="27" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>1</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="27" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>2</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="27" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>2</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="27" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>1</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="27" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>6</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>2</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="27" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>2</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="F29" s="18"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>3</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="F30" s="18"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>3</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>2</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="F32" s="18"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>1</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>2</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="27" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>13</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="18">
         <v>2</v>
       </c>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>13</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="18">
         <v>2</v>
       </c>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>13</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="18">
         <v>2</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="18">
         <v>1</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="27" t="s">
+      <c r="F38" s="18"/>
+      <c r="G38" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="18">
         <v>1</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="27" t="s">
+      <c r="F39" s="18"/>
+      <c r="G39" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="18">
         <v>13</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="18">
         <v>2</v>
       </c>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="27"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="68.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <v>3</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="24" t="s">
+      <c r="F42" s="18"/>
+      <c r="G42" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="57" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="18">
         <v>3</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="24" t="s">
+      <c r="F43" s="18"/>
+      <c r="G43" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="18">
         <v>5</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="27"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="18">
         <v>3</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="27"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="18">
         <v>8</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="27" t="s">
+      <c r="F46" s="18"/>
+      <c r="G46" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="18">
         <v>3</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="27"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="18">
         <v>16</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="18">
         <v>2</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="18">
         <v>16</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="18">
         <v>2</v>
       </c>
-      <c r="G49" s="27"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="18">
         <v>1</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="27" t="s">
+      <c r="F50" s="18"/>
+      <c r="G50" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="18" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="18">
         <v>1</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="27" t="s">
+      <c r="F51" s="18"/>
+      <c r="G51" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="18">
         <v>6</v>
       </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="27"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="18" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="18">
         <v>1</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="18">
         <v>2</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="18">
         <v>7</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="27"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="18">
         <v>3</v>
       </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="27"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="14"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="18" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="18">
         <v>2</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="27" t="s">
+      <c r="F57" s="18"/>
+      <c r="G57" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="18" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="18">
         <v>3</v>
       </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="27" t="s">
+      <c r="F58" s="18"/>
+      <c r="G58" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="18">
         <v>3</v>
       </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="27"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="14"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="18">
         <v>8</v>
       </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="27"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="27" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="18">
         <v>8</v>
       </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="27"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="27" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="18">
         <v>8</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="27"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="14"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="27" t="s">
+      <c r="A63" s="18"/>
+      <c r="B63" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="16">
         <v>2</v>
       </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="27"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="27" t="s">
+      <c r="A64" s="18"/>
+      <c r="B64" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="16">
         <v>2</v>
       </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="27"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="14"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="27" t="s">
+      <c r="A65" s="18"/>
+      <c r="B65" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="16">
         <v>3</v>
       </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="27"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="27" t="s">
+      <c r="A66" s="18"/>
+      <c r="B66" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="27"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="14"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="27" t="s">
+      <c r="A67" s="18"/>
+      <c r="B67" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="16">
         <v>6</v>
       </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="27"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="27" t="s">
+      <c r="A68" s="18"/>
+      <c r="B68" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="28"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="27"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="14"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="27" t="s">
+      <c r="A69" s="18"/>
+      <c r="B69" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69" s="16">
         <v>6</v>
       </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="27"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="27"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="27"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="14"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="27"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="27"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:G14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
